--- a/output_analysis/SPREAD_4_SEC_5.0_ENERGY_1.0_EV-FACTOR_11_EV_50_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_4_SEC_5.0_ENERGY_1.0_EV-FACTOR_11_EV_50_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,264 +434,240 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 9 10 22 23 98 246</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2 28 86</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6 31 49 82 104 107 116</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3 12 14 16 23 32 52</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>163</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2 11 55 119</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4 6 10 54 55 80</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>139</v>
       </c>
       <c r="E4" t="n">
         <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>98</v>
-      </c>
-      <c r="H4" t="n">
-        <v>172</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12 15 16 19 74 130</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7 18 21</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89</v>
       </c>
       <c r="E5" t="n">
         <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>96</v>
-      </c>
-      <c r="H5" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5 32 47 106 283</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5 20 26 90</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>113</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17 30 41 44 63 71 202</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8 9 27 41 44 65 72 165</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>38 64 78 103</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11 34 46</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>52 54 77 129 143</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15 53 68 93 216 233 251</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>81</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
